--- a/output/2023.10.25/2023.11.07_ActiveLearning_CEM .xlsx
+++ b/output/2023.10.25/2023.11.07_ActiveLearning_CEM .xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b59e0684c1115e5a/Documents/GitHub/opentrons/output/2023.11.07/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b59e0684c1115e5a/Documents/GitHub/opentrons/output/2023.10.25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C66AD2B6-A02E-4F98-9CA2-8B464076265C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D29D7CB-A803-4944-B0AA-7F385B05D7AF}"/>
+  <xr:revisionPtr revIDLastSave="235" documentId="13_ncr:1_{C66AD2B6-A02E-4F98-9CA2-8B464076265C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F61BE14D-D468-4097-BD6B-8E5752536F6D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate_Composition" sheetId="3" r:id="rId1"/>
     <sheet name="Plate_data" sheetId="1" r:id="rId2"/>
     <sheet name="Legend" sheetId="2" r:id="rId3"/>
+    <sheet name="Plate_pH" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="230">
   <si>
     <t>Plate_Number</t>
   </si>
@@ -722,13 +723,19 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Plate 2</t>
+  </si>
+  <si>
+    <t>Plate 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -785,6 +792,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -827,7 +848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -860,6 +881,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,6 +919,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>374941</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>53407</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361953</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>67741</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94194104-8E7F-093D-19C5-9A2DB524966D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1313780" y="632218"/>
+          <a:ext cx="6643734" cy="8521412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381153</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>82399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>379934</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>30685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2789EB5-D3ED-F22B-A5C7-524349A3761F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="12573001" y="381001"/>
+          <a:ext cx="7314286" cy="9752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13864,8 +13980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="C180" workbookViewId="0">
+      <selection activeCell="F195" sqref="F195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13925,7 +14041,7 @@
         <v>144</v>
       </c>
       <c r="G2" s="3">
-        <v>7.9</v>
+        <v>8.15</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>225</v>
@@ -13949,7 +14065,7 @@
         <v>143</v>
       </c>
       <c r="G3" s="3">
-        <v>7.96</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -13968,7 +14084,7 @@
         <v>143</v>
       </c>
       <c r="G4" s="3">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -13987,7 +14103,7 @@
         <v>143</v>
       </c>
       <c r="G5" s="3">
-        <v>8.3000000000000007</v>
+        <v>8.25</v>
       </c>
       <c r="H5" s="3"/>
     </row>
@@ -14006,7 +14122,7 @@
         <v>143</v>
       </c>
       <c r="G6" s="3">
-        <v>7.67</v>
+        <v>7.35</v>
       </c>
       <c r="H6" s="3"/>
     </row>
@@ -14025,7 +14141,7 @@
         <v>144</v>
       </c>
       <c r="G7" s="3">
-        <v>7.2</v>
+        <v>7.65</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -14044,7 +14160,7 @@
         <v>144</v>
       </c>
       <c r="G8" s="3">
-        <v>7.73</v>
+        <v>7.45</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -14063,7 +14179,7 @@
         <v>143</v>
       </c>
       <c r="G9" s="3">
-        <v>7.57</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="H9" s="3"/>
     </row>
@@ -14082,7 +14198,7 @@
         <v>143</v>
       </c>
       <c r="G10" s="3">
-        <v>7.58</v>
+        <v>7.65</v>
       </c>
       <c r="H10" s="3"/>
     </row>
@@ -14101,7 +14217,7 @@
         <v>144</v>
       </c>
       <c r="G11" s="3">
-        <v>7.57</v>
+        <v>8.35</v>
       </c>
       <c r="H11" s="3"/>
     </row>
@@ -14120,7 +14236,7 @@
         <v>144</v>
       </c>
       <c r="G12" s="3">
-        <v>7.63</v>
+        <v>8.15</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -14139,7 +14255,7 @@
         <v>144</v>
       </c>
       <c r="G13" s="3">
-        <v>7.64</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -14159,7 +14275,7 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3">
-        <v>7.46</v>
+        <v>8.1</v>
       </c>
       <c r="H14" s="3"/>
     </row>
@@ -14180,7 +14296,7 @@
         <v>143</v>
       </c>
       <c r="G15" s="3">
-        <v>7.21</v>
+        <v>7.15</v>
       </c>
       <c r="H15" s="3"/>
     </row>
@@ -14201,7 +14317,7 @@
         <v>143</v>
       </c>
       <c r="G16" s="3">
-        <v>7.48</v>
+        <v>8.1</v>
       </c>
       <c r="H16" s="3"/>
     </row>
@@ -14220,7 +14336,7 @@
         <v>144</v>
       </c>
       <c r="G17" s="3">
-        <v>7.22</v>
+        <v>7.35</v>
       </c>
       <c r="H17" s="3"/>
     </row>
@@ -14241,7 +14357,7 @@
         <v>143</v>
       </c>
       <c r="G18" s="3">
-        <v>7.18</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>222</v>
@@ -14264,7 +14380,7 @@
         <v>143</v>
       </c>
       <c r="G19" s="3">
-        <v>7.4</v>
+        <v>7.25</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -14285,7 +14401,7 @@
         <v>143</v>
       </c>
       <c r="G20" s="3">
-        <v>7.47</v>
+        <v>8.15</v>
       </c>
       <c r="H20" s="3"/>
     </row>
@@ -14306,7 +14422,7 @@
         <v>144</v>
       </c>
       <c r="G21" s="3">
-        <v>7.5</v>
+        <v>7.85</v>
       </c>
       <c r="H21" s="3"/>
     </row>
@@ -14323,7 +14439,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="G22" s="3">
-        <v>7.48</v>
+        <v>7.85</v>
       </c>
       <c r="H22" s="3"/>
     </row>
@@ -14344,7 +14460,7 @@
         <v>144</v>
       </c>
       <c r="G23" s="3">
-        <v>7.32</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="H23" s="3"/>
     </row>
@@ -14365,7 +14481,7 @@
         <v>143</v>
       </c>
       <c r="G24" s="3">
-        <v>6.93</v>
+        <v>9.15</v>
       </c>
       <c r="H24" s="3"/>
     </row>
@@ -14384,7 +14500,7 @@
         <v>143</v>
       </c>
       <c r="G25" s="3">
-        <v>7.56</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -14404,7 +14520,7 @@
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3">
-        <v>6.84</v>
+        <v>7.8</v>
       </c>
       <c r="H26" s="3"/>
     </row>
@@ -14426,7 +14542,7 @@
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3">
-        <v>7.66</v>
+        <v>8.4</v>
       </c>
       <c r="H27" s="3"/>
     </row>
@@ -14447,7 +14563,7 @@
         <v>144</v>
       </c>
       <c r="G28" s="3">
-        <v>7.84</v>
+        <v>7.65</v>
       </c>
       <c r="H28" s="3"/>
     </row>
@@ -14468,7 +14584,7 @@
         <v>144</v>
       </c>
       <c r="G29" s="3">
-        <v>7.5</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="H29" s="3"/>
     </row>
@@ -14489,7 +14605,7 @@
         <v>144</v>
       </c>
       <c r="G30" s="3">
-        <v>7.73</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H30" s="3"/>
     </row>
@@ -14510,7 +14626,7 @@
         <v>144</v>
       </c>
       <c r="G31" s="3">
-        <v>7.71</v>
+        <v>7.75</v>
       </c>
       <c r="H31" s="3"/>
     </row>
@@ -14531,7 +14647,7 @@
         <v>144</v>
       </c>
       <c r="G32" s="3">
-        <v>7.63</v>
+        <v>7.8</v>
       </c>
       <c r="H32" s="3"/>
     </row>
@@ -14552,7 +14668,7 @@
         <v>144</v>
       </c>
       <c r="G33" s="3">
-        <v>7.26</v>
+        <v>8.1</v>
       </c>
       <c r="H33" s="3"/>
     </row>
@@ -14573,7 +14689,7 @@
         <v>143</v>
       </c>
       <c r="G34" s="3">
-        <v>7.74</v>
+        <v>7.95</v>
       </c>
       <c r="H34" s="3"/>
     </row>
@@ -14594,7 +14710,7 @@
         <v>143</v>
       </c>
       <c r="G35" s="3">
-        <v>7.06</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="H35" s="3"/>
     </row>
@@ -14615,7 +14731,7 @@
         <v>144</v>
       </c>
       <c r="G36" s="3">
-        <v>7.49</v>
+        <v>8.35</v>
       </c>
       <c r="H36" s="3"/>
     </row>
@@ -14634,7 +14750,7 @@
         <v>144</v>
       </c>
       <c r="G37" s="3">
-        <v>7.54</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="H37" s="3"/>
     </row>
@@ -14653,7 +14769,7 @@
         <v>143</v>
       </c>
       <c r="G38" s="3">
-        <v>7.37</v>
+        <v>6.95</v>
       </c>
       <c r="H38" s="3"/>
     </row>
@@ -14674,7 +14790,7 @@
         <v>143</v>
       </c>
       <c r="G39" s="3">
-        <v>7.34</v>
+        <v>8.9</v>
       </c>
       <c r="H39" s="3"/>
     </row>
@@ -14695,7 +14811,7 @@
         <v>144</v>
       </c>
       <c r="G40" s="3">
-        <v>7.33</v>
+        <v>8</v>
       </c>
       <c r="H40" s="3"/>
     </row>
@@ -14716,7 +14832,7 @@
         <v>144</v>
       </c>
       <c r="G41" s="3">
-        <v>7.22</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H41" s="3"/>
     </row>
@@ -14735,7 +14851,7 @@
         <v>144</v>
       </c>
       <c r="G42" s="3">
-        <v>7.44</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="H42" s="3"/>
     </row>
@@ -14754,7 +14870,7 @@
         <v>144</v>
       </c>
       <c r="G43" s="3">
-        <v>7.65</v>
+        <v>7.95</v>
       </c>
       <c r="H43" s="3"/>
     </row>
@@ -14775,7 +14891,7 @@
         <v>144</v>
       </c>
       <c r="G44" s="3">
-        <v>7.5</v>
+        <v>7.55</v>
       </c>
       <c r="H44" s="3"/>
     </row>
@@ -14796,7 +14912,7 @@
         <v>144</v>
       </c>
       <c r="G45" s="3">
-        <v>7.16</v>
+        <v>7.55</v>
       </c>
       <c r="H45" s="3"/>
     </row>
@@ -14815,7 +14931,7 @@
         <v>144</v>
       </c>
       <c r="G46" s="3">
-        <v>7.04</v>
+        <v>7.7</v>
       </c>
       <c r="H46" s="3"/>
     </row>
@@ -14836,7 +14952,7 @@
         <v>143</v>
       </c>
       <c r="G47" s="3">
-        <v>6.99</v>
+        <v>7.75</v>
       </c>
       <c r="H47" s="3"/>
     </row>
@@ -14855,7 +14971,7 @@
         <v>143</v>
       </c>
       <c r="G48">
-        <v>6.82</v>
+        <v>7.55</v>
       </c>
       <c r="H48" s="3"/>
     </row>
@@ -14874,7 +14990,7 @@
         <v>143</v>
       </c>
       <c r="G49">
-        <v>6.68</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="H49" s="3"/>
     </row>
@@ -14893,7 +15009,7 @@
         <v>143</v>
       </c>
       <c r="G50" s="3">
-        <v>6.65</v>
+        <v>7.65</v>
       </c>
       <c r="H50" s="3"/>
     </row>
@@ -14912,7 +15028,7 @@
         <v>143</v>
       </c>
       <c r="G51" s="3">
-        <v>6.74</v>
+        <v>7.6</v>
       </c>
       <c r="H51" s="3"/>
     </row>
@@ -14931,7 +15047,7 @@
         <v>143</v>
       </c>
       <c r="G52" s="3">
-        <v>7.3</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="H52" s="3"/>
     </row>
@@ -14950,7 +15066,7 @@
         <v>143</v>
       </c>
       <c r="G53" s="3">
-        <v>7.17</v>
+        <v>8.1</v>
       </c>
       <c r="H53" s="3"/>
     </row>
@@ -14969,7 +15085,7 @@
         <v>144</v>
       </c>
       <c r="G54" s="3">
-        <v>7.36</v>
+        <v>8.25</v>
       </c>
       <c r="H54" s="3"/>
     </row>
@@ -14988,7 +15104,7 @@
         <v>144</v>
       </c>
       <c r="G55" s="3">
-        <v>7.29</v>
+        <v>7.8</v>
       </c>
       <c r="H55" s="3"/>
     </row>
@@ -15007,7 +15123,7 @@
         <v>144</v>
       </c>
       <c r="G56" s="3">
-        <v>7.07</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H56" s="3"/>
     </row>
@@ -15026,7 +15142,7 @@
         <v>143</v>
       </c>
       <c r="G57" s="3">
-        <v>7.21</v>
+        <v>7.35</v>
       </c>
       <c r="H57" s="3"/>
     </row>
@@ -15045,7 +15161,7 @@
         <v>143</v>
       </c>
       <c r="G58" s="3">
-        <v>7.24</v>
+        <v>6.8</v>
       </c>
       <c r="H58" s="3"/>
     </row>
@@ -15085,7 +15201,7 @@
         <v>143</v>
       </c>
       <c r="G60" s="3">
-        <v>6.93</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="H60" s="3"/>
     </row>
@@ -15104,7 +15220,7 @@
         <v>144</v>
       </c>
       <c r="G61" s="3">
-        <v>7.15</v>
+        <v>8.6</v>
       </c>
       <c r="H61" s="3"/>
     </row>
@@ -15123,7 +15239,7 @@
         <v>143</v>
       </c>
       <c r="G62" s="3">
-        <v>7.19</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="H62" s="3"/>
     </row>
@@ -15142,7 +15258,7 @@
         <v>144</v>
       </c>
       <c r="G63" s="3">
-        <v>7.41</v>
+        <v>8.65</v>
       </c>
       <c r="H63" s="3"/>
     </row>
@@ -15161,7 +15277,7 @@
         <v>143</v>
       </c>
       <c r="G64" s="3">
-        <v>7.54</v>
+        <v>8.4</v>
       </c>
       <c r="H64" s="3"/>
     </row>
@@ -15180,7 +15296,7 @@
         <v>143</v>
       </c>
       <c r="G65" s="3">
-        <v>7.75</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H65" s="3"/>
     </row>
@@ -15199,7 +15315,7 @@
         <v>144</v>
       </c>
       <c r="G66" s="3">
-        <v>7.73</v>
+        <v>7.7</v>
       </c>
       <c r="H66" s="3"/>
     </row>
@@ -15218,7 +15334,7 @@
         <v>144</v>
       </c>
       <c r="G67" s="3">
-        <v>7.51</v>
+        <v>7.25</v>
       </c>
       <c r="H67" s="3"/>
     </row>
@@ -15237,7 +15353,7 @@
         <v>143</v>
       </c>
       <c r="G68" s="3">
-        <v>7.43</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H68" s="3"/>
     </row>
@@ -15256,7 +15372,7 @@
         <v>144</v>
       </c>
       <c r="G69" s="3">
-        <v>7.84</v>
+        <v>7.45</v>
       </c>
       <c r="H69" s="3"/>
     </row>
@@ -15275,7 +15391,7 @@
         <v>143</v>
       </c>
       <c r="G70" s="3">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="H70" s="3"/>
     </row>
@@ -15294,7 +15410,7 @@
         <v>143</v>
       </c>
       <c r="G71" s="3">
-        <v>7.69</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="H71" s="3"/>
     </row>
@@ -15313,7 +15429,7 @@
         <v>143</v>
       </c>
       <c r="G72">
-        <v>7.36</v>
+        <v>7.1</v>
       </c>
       <c r="H72" s="3"/>
     </row>
@@ -15332,7 +15448,7 @@
         <v>143</v>
       </c>
       <c r="G73">
-        <v>7.44</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="H73" s="3"/>
     </row>
@@ -15351,7 +15467,7 @@
         <v>143</v>
       </c>
       <c r="G74" s="3">
-        <v>6.88</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="H74" s="3"/>
     </row>
@@ -15370,7 +15486,7 @@
         <v>143</v>
       </c>
       <c r="G75" s="3">
-        <v>7.08</v>
+        <v>8.1</v>
       </c>
       <c r="H75" s="3"/>
     </row>
@@ -15389,7 +15505,7 @@
         <v>144</v>
       </c>
       <c r="G76" s="3">
-        <v>7.04</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="H76" s="3"/>
     </row>
@@ -15408,7 +15524,7 @@
         <v>144</v>
       </c>
       <c r="G77" s="3">
-        <v>7.26</v>
+        <v>8.35</v>
       </c>
       <c r="H77" s="3"/>
     </row>
@@ -15427,7 +15543,7 @@
         <v>143</v>
       </c>
       <c r="G78" s="3">
-        <v>6.7</v>
+        <v>8.15</v>
       </c>
       <c r="H78" s="3"/>
     </row>
@@ -15446,7 +15562,7 @@
         <v>143</v>
       </c>
       <c r="G79" s="3">
-        <v>6.57</v>
+        <v>7.05</v>
       </c>
       <c r="H79" s="3"/>
     </row>
@@ -15465,7 +15581,7 @@
         <v>144</v>
       </c>
       <c r="G80" s="3">
-        <v>7.07</v>
+        <v>7.75</v>
       </c>
       <c r="H80" s="3"/>
     </row>
@@ -15484,7 +15600,7 @@
         <v>144</v>
       </c>
       <c r="G81" s="3">
-        <v>7.11</v>
+        <v>7.9</v>
       </c>
       <c r="H81" s="3"/>
     </row>
@@ -15503,7 +15619,7 @@
         <v>143</v>
       </c>
       <c r="G82" s="3">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="H82" s="3"/>
     </row>
@@ -15522,7 +15638,7 @@
         <v>143</v>
       </c>
       <c r="G83" s="3">
-        <v>7</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H83" s="3"/>
     </row>
@@ -15541,7 +15657,7 @@
         <v>143</v>
       </c>
       <c r="G84" s="3">
-        <v>7.25</v>
+        <v>8.25</v>
       </c>
       <c r="H84" s="3"/>
     </row>
@@ -15560,7 +15676,7 @@
         <v>143</v>
       </c>
       <c r="G85" s="3">
-        <v>7.13</v>
+        <v>7.85</v>
       </c>
       <c r="H85" s="3"/>
     </row>
@@ -15579,7 +15695,7 @@
         <v>143</v>
       </c>
       <c r="G86" s="3">
-        <v>7.34</v>
+        <v>7.95</v>
       </c>
       <c r="H86" s="3"/>
     </row>
@@ -15598,7 +15714,7 @@
         <v>144</v>
       </c>
       <c r="G87" s="3">
-        <v>7.87</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H87" s="3"/>
     </row>
@@ -15617,7 +15733,7 @@
         <v>144</v>
       </c>
       <c r="G88" s="3">
-        <v>8.06</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H88" s="3"/>
     </row>
@@ -15636,7 +15752,7 @@
         <v>144</v>
       </c>
       <c r="G89" s="3">
-        <v>7.87</v>
+        <v>8.4</v>
       </c>
       <c r="H89" s="3"/>
     </row>
@@ -15655,7 +15771,7 @@
         <v>143</v>
       </c>
       <c r="G90" s="3">
-        <v>7.26</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H90" s="3"/>
     </row>
@@ -15674,7 +15790,7 @@
         <v>144</v>
       </c>
       <c r="G91" s="3">
-        <v>6.87</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="H91" s="3"/>
     </row>
@@ -15693,7 +15809,7 @@
         <v>143</v>
       </c>
       <c r="G92" s="3">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="H92" s="3"/>
     </row>
@@ -15712,7 +15828,7 @@
         <v>143</v>
       </c>
       <c r="G93" s="3">
-        <v>7.33</v>
+        <v>8.4</v>
       </c>
       <c r="H93" s="3"/>
     </row>
@@ -15731,7 +15847,7 @@
         <v>143</v>
       </c>
       <c r="G94" s="3">
-        <v>6.95</v>
+        <v>8.4</v>
       </c>
       <c r="H94" s="3"/>
     </row>
@@ -15750,7 +15866,7 @@
         <v>143</v>
       </c>
       <c r="G95" s="3">
-        <v>7.19</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H95" s="3"/>
     </row>
@@ -15769,7 +15885,7 @@
         <v>143</v>
       </c>
       <c r="G96" s="3">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="H96" s="3"/>
     </row>
@@ -15788,7 +15904,7 @@
         <v>143</v>
       </c>
       <c r="G97" s="3">
-        <v>6.82</v>
+        <v>7.25</v>
       </c>
       <c r="H97" s="3"/>
     </row>
@@ -15808,7 +15924,7 @@
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3">
-        <v>7.72</v>
+        <v>8.1</v>
       </c>
       <c r="H98" s="3"/>
     </row>
@@ -15828,7 +15944,7 @@
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3">
-        <v>8.35</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="H99" s="3"/>
     </row>
@@ -15847,7 +15963,7 @@
         <v>143</v>
       </c>
       <c r="G100" s="3">
-        <v>8.17</v>
+        <v>8.02</v>
       </c>
       <c r="H100" s="3"/>
     </row>
@@ -15866,7 +15982,7 @@
         <v>144</v>
       </c>
       <c r="G101" s="3">
-        <v>8.2899999999999991</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="H101" s="3"/>
     </row>
@@ -15885,7 +16001,7 @@
         <v>143</v>
       </c>
       <c r="G102" s="3">
-        <v>7.82</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="H102" s="3"/>
     </row>
@@ -15904,7 +16020,7 @@
         <v>143</v>
       </c>
       <c r="G103" s="3">
-        <v>7.74</v>
+        <v>7.3</v>
       </c>
       <c r="H103" s="3"/>
     </row>
@@ -15942,7 +16058,7 @@
         <v>143</v>
       </c>
       <c r="G105" s="3">
-        <v>8.24</v>
+        <v>7.15</v>
       </c>
       <c r="H105" s="3"/>
     </row>
@@ -15961,7 +16077,7 @@
         <v>143</v>
       </c>
       <c r="G106" s="3">
-        <v>7.59</v>
+        <v>7.4</v>
       </c>
       <c r="H106" s="3"/>
     </row>
@@ -15980,7 +16096,7 @@
         <v>143</v>
       </c>
       <c r="G107" s="3">
-        <v>7.57</v>
+        <v>7.55</v>
       </c>
       <c r="H107" s="3"/>
     </row>
@@ -15999,7 +16115,7 @@
         <v>144</v>
       </c>
       <c r="G108" s="3">
-        <v>7.71</v>
+        <v>7.5</v>
       </c>
       <c r="H108" s="3"/>
     </row>
@@ -16018,7 +16134,7 @@
         <v>143</v>
       </c>
       <c r="G109" s="3">
-        <v>7.81</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="H109" s="3"/>
     </row>
@@ -16037,7 +16153,7 @@
         <v>143</v>
       </c>
       <c r="G110" s="3">
-        <v>7.94</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H110" s="3"/>
     </row>
@@ -16058,7 +16174,7 @@
         <v>143</v>
       </c>
       <c r="G111" s="3">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>197</v>
@@ -16081,7 +16197,7 @@
         <v>143</v>
       </c>
       <c r="G112" s="3">
-        <v>7.85</v>
+        <v>7.4</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>195</v>
@@ -16104,7 +16220,7 @@
         <v>143</v>
       </c>
       <c r="G113" s="3">
-        <v>7.24</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H113" s="3"/>
     </row>
@@ -16125,7 +16241,7 @@
         <v>143</v>
       </c>
       <c r="G114" s="3">
-        <v>6.98</v>
+        <v>8.1</v>
       </c>
       <c r="H114" s="3"/>
     </row>
@@ -16146,7 +16262,7 @@
         <v>144</v>
       </c>
       <c r="G115" s="3">
-        <v>6.24</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="H115" s="3"/>
     </row>
@@ -16167,7 +16283,7 @@
         <v>144</v>
       </c>
       <c r="G116" s="3">
-        <v>7.14</v>
+        <v>8.25</v>
       </c>
       <c r="H116" s="3"/>
     </row>
@@ -16188,7 +16304,7 @@
         <v>144</v>
       </c>
       <c r="G117" s="3">
-        <v>6.65</v>
+        <v>8.35</v>
       </c>
       <c r="H117" s="3"/>
     </row>
@@ -16209,7 +16325,7 @@
         <v>144</v>
       </c>
       <c r="G118" s="3">
-        <v>7.21</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H118" s="3"/>
     </row>
@@ -16230,7 +16346,7 @@
         <v>144</v>
       </c>
       <c r="G119" s="3">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
       <c r="H119" s="3"/>
     </row>
@@ -16251,7 +16367,7 @@
         <v>144</v>
       </c>
       <c r="G120" s="3">
-        <v>7.89</v>
+        <v>8.25</v>
       </c>
       <c r="H120" s="3"/>
     </row>
@@ -16270,7 +16386,7 @@
         <v>143</v>
       </c>
       <c r="G121" s="3">
-        <v>7.85</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H121" s="3"/>
     </row>
@@ -16289,7 +16405,7 @@
         <v>144</v>
       </c>
       <c r="G122" s="3">
-        <v>7.03</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="H122" s="3"/>
     </row>
@@ -16310,7 +16426,7 @@
         <v>143</v>
       </c>
       <c r="G123" s="3">
-        <v>7.9</v>
+        <v>8.75</v>
       </c>
       <c r="H123" s="3"/>
     </row>
@@ -16331,7 +16447,7 @@
         <v>143</v>
       </c>
       <c r="G124" s="3">
-        <v>7.79</v>
+        <v>8.02</v>
       </c>
       <c r="H124" s="3"/>
     </row>
@@ -16352,7 +16468,7 @@
         <v>144</v>
       </c>
       <c r="G125" s="3">
-        <v>6.79</v>
+        <v>7.2</v>
       </c>
       <c r="H125" s="3"/>
     </row>
@@ -16373,7 +16489,7 @@
         <v>143</v>
       </c>
       <c r="G126" s="3">
-        <v>7.52</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="H126" s="3"/>
     </row>
@@ -16394,7 +16510,7 @@
         <v>143</v>
       </c>
       <c r="G127" s="3">
-        <v>6.71</v>
+        <v>8</v>
       </c>
       <c r="H127" s="3"/>
     </row>
@@ -16415,7 +16531,7 @@
         <v>143</v>
       </c>
       <c r="G128" s="3">
-        <v>7.75</v>
+        <v>7.95</v>
       </c>
       <c r="H128" s="3"/>
     </row>
@@ -16436,7 +16552,7 @@
         <v>144</v>
       </c>
       <c r="G129" s="3">
-        <v>7.65</v>
+        <v>8.15</v>
       </c>
       <c r="H129" s="3"/>
     </row>
@@ -16457,7 +16573,7 @@
         <v>143</v>
       </c>
       <c r="G130" s="3">
-        <v>7.52</v>
+        <v>8.25</v>
       </c>
       <c r="H130" s="3"/>
     </row>
@@ -16478,7 +16594,7 @@
         <v>144</v>
       </c>
       <c r="G131" s="3">
-        <v>7.76</v>
+        <v>8.35</v>
       </c>
       <c r="H131" s="3"/>
     </row>
@@ -16499,7 +16615,7 @@
         <v>143</v>
       </c>
       <c r="G132" s="3">
-        <v>7.4</v>
+        <v>8.15</v>
       </c>
       <c r="H132" s="3"/>
     </row>
@@ -16518,7 +16634,7 @@
         <v>144</v>
       </c>
       <c r="G133" s="3">
-        <v>7.85</v>
+        <v>7.7</v>
       </c>
       <c r="H133" s="3"/>
     </row>
@@ -16537,7 +16653,7 @@
         <v>144</v>
       </c>
       <c r="G134" s="3">
-        <v>6.8</v>
+        <v>7.7</v>
       </c>
       <c r="H134" s="3"/>
     </row>
@@ -16554,7 +16670,7 @@
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
       <c r="G135" s="3">
-        <v>7.44</v>
+        <v>8.35</v>
       </c>
       <c r="H135" s="3"/>
     </row>
@@ -16571,7 +16687,7 @@
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
       <c r="G136" s="3">
-        <v>7.71</v>
+        <v>8.02</v>
       </c>
       <c r="H136" s="3"/>
     </row>
@@ -16588,7 +16704,7 @@
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
       <c r="G137" s="3">
-        <v>7.38</v>
+        <v>7.55</v>
       </c>
       <c r="H137" s="3"/>
     </row>
@@ -16609,7 +16725,7 @@
         <v>143</v>
       </c>
       <c r="G138" s="3">
-        <v>6.89</v>
+        <v>8.15</v>
       </c>
       <c r="H138" s="3"/>
     </row>
@@ -16630,7 +16746,7 @@
         <v>143</v>
       </c>
       <c r="G139" s="3">
-        <v>7.23</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H139" s="3"/>
     </row>
@@ -16651,7 +16767,7 @@
         <v>143</v>
       </c>
       <c r="G140" s="3">
-        <v>7.52</v>
+        <v>8.5</v>
       </c>
       <c r="H140" s="3"/>
     </row>
@@ -16672,7 +16788,7 @@
         <v>144</v>
       </c>
       <c r="G141" s="3">
-        <v>7.59</v>
+        <v>8.1</v>
       </c>
       <c r="H141" s="3"/>
     </row>
@@ -16693,7 +16809,7 @@
         <v>144</v>
       </c>
       <c r="G142" s="3">
-        <v>7.04</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="H142" s="3"/>
     </row>
@@ -16714,7 +16830,7 @@
         <v>144</v>
       </c>
       <c r="G143" s="3">
-        <v>7.77</v>
+        <v>8.25</v>
       </c>
       <c r="H143" s="3"/>
     </row>
@@ -16733,7 +16849,7 @@
         <v>144</v>
       </c>
       <c r="G144" s="3">
-        <v>7.69</v>
+        <v>7.85</v>
       </c>
       <c r="H144" s="3"/>
     </row>
@@ -16752,7 +16868,7 @@
         <v>144</v>
       </c>
       <c r="G145" s="3">
-        <v>7.26</v>
+        <v>8.1</v>
       </c>
       <c r="H145" s="3"/>
     </row>
@@ -16771,7 +16887,7 @@
         <v>143</v>
       </c>
       <c r="G146" s="3">
-        <v>8.06</v>
+        <v>8.4</v>
       </c>
       <c r="H146" s="3"/>
     </row>
@@ -16792,7 +16908,7 @@
         <v>143</v>
       </c>
       <c r="G147" s="3">
-        <v>7.51</v>
+        <v>7.9</v>
       </c>
       <c r="H147" s="3"/>
     </row>
@@ -16811,7 +16927,7 @@
         <v>144</v>
       </c>
       <c r="G148" s="3">
-        <v>7.32</v>
+        <v>7.95</v>
       </c>
       <c r="H148" s="3"/>
     </row>
@@ -16830,7 +16946,7 @@
         <v>144</v>
       </c>
       <c r="G149" s="3">
-        <v>7.76</v>
+        <v>8.1</v>
       </c>
       <c r="H149" s="3"/>
     </row>
@@ -16849,7 +16965,7 @@
         <v>144</v>
       </c>
       <c r="G150" s="3">
-        <v>7.37</v>
+        <v>7.9</v>
       </c>
       <c r="H150" s="3"/>
     </row>
@@ -16870,7 +16986,7 @@
         <v>143</v>
       </c>
       <c r="G151" s="3">
-        <v>7.15</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="H151" s="3"/>
     </row>
@@ -16891,7 +17007,7 @@
         <v>143</v>
       </c>
       <c r="G152" s="3">
-        <v>6.96</v>
+        <v>7.55</v>
       </c>
       <c r="H152" s="3"/>
     </row>
@@ -16910,7 +17026,7 @@
         <v>144</v>
       </c>
       <c r="G153" s="3">
-        <v>6.85</v>
+        <v>8.15</v>
       </c>
       <c r="H153" s="3"/>
     </row>
@@ -16929,7 +17045,7 @@
         <v>144</v>
       </c>
       <c r="G154" s="3">
-        <v>6.5</v>
+        <v>8.25</v>
       </c>
       <c r="H154" s="3"/>
     </row>
@@ -16948,7 +17064,7 @@
         <v>144</v>
       </c>
       <c r="G155" s="3">
-        <v>7.68</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="H155" s="3"/>
     </row>
@@ -16967,7 +17083,7 @@
         <v>144</v>
       </c>
       <c r="G156" s="3">
-        <v>7.91</v>
+        <v>8.6</v>
       </c>
       <c r="H156" s="3"/>
     </row>
@@ -16986,7 +17102,7 @@
         <v>143</v>
       </c>
       <c r="G157" s="3">
-        <v>8.1300000000000008</v>
+        <v>8.6</v>
       </c>
       <c r="H157" s="3"/>
     </row>
@@ -17005,7 +17121,7 @@
         <v>144</v>
       </c>
       <c r="G158" s="3">
-        <v>6.82</v>
+        <v>7.15</v>
       </c>
       <c r="H158" s="3"/>
     </row>
@@ -17026,7 +17142,7 @@
         <v>143</v>
       </c>
       <c r="G159" s="3">
-        <v>7.28</v>
+        <v>8.15</v>
       </c>
       <c r="H159" s="3"/>
     </row>
@@ -17047,7 +17163,7 @@
         <v>143</v>
       </c>
       <c r="G160" s="3">
-        <v>7.17</v>
+        <v>8.4</v>
       </c>
       <c r="H160" s="3" t="s">
         <v>214</v>
@@ -17070,7 +17186,7 @@
         <v>144</v>
       </c>
       <c r="G161" s="3">
-        <v>7.64</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H161" s="3"/>
     </row>
@@ -17091,7 +17207,7 @@
         <v>143</v>
       </c>
       <c r="G162" s="3">
-        <v>6.53</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="H162" s="3"/>
     </row>
@@ -17112,7 +17228,7 @@
         <v>143</v>
       </c>
       <c r="G163" s="3">
-        <v>6.86</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="H163" s="3"/>
     </row>
@@ -17131,7 +17247,7 @@
         <v>144</v>
       </c>
       <c r="G164" s="3">
-        <v>7.11</v>
+        <v>7.75</v>
       </c>
       <c r="H164" s="3"/>
     </row>
@@ -17152,7 +17268,7 @@
         <v>143</v>
       </c>
       <c r="G165" s="3">
-        <v>8.0299999999999994</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="H165" s="3"/>
     </row>
@@ -17171,7 +17287,7 @@
         <v>144</v>
       </c>
       <c r="G166" s="3">
-        <v>7.18</v>
+        <v>8.15</v>
       </c>
       <c r="H166" s="3"/>
     </row>
@@ -17190,7 +17306,7 @@
         <v>144</v>
       </c>
       <c r="G167" s="3">
-        <v>8.07</v>
+        <v>8.85</v>
       </c>
       <c r="H167" s="3"/>
     </row>
@@ -17211,7 +17327,7 @@
         <v>144</v>
       </c>
       <c r="G168" s="3">
-        <v>8</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H168" s="3"/>
     </row>
@@ -17230,7 +17346,7 @@
         <v>144</v>
       </c>
       <c r="G169" s="3">
-        <v>6.79</v>
+        <v>8.25</v>
       </c>
       <c r="H169" s="3"/>
     </row>
@@ -17249,7 +17365,7 @@
         <v>143</v>
       </c>
       <c r="G170" s="3">
-        <v>7.81</v>
+        <v>7.95</v>
       </c>
       <c r="H170" s="3"/>
     </row>
@@ -17270,7 +17386,7 @@
         <v>143</v>
       </c>
       <c r="G171" s="3">
-        <v>6.13</v>
+        <v>7.8</v>
       </c>
       <c r="H171" s="3" t="s">
         <v>199</v>
@@ -17293,7 +17409,7 @@
         <v>143</v>
       </c>
       <c r="G172" s="3">
-        <v>6.44</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H172" s="3"/>
     </row>
@@ -17314,7 +17430,7 @@
         <v>144</v>
       </c>
       <c r="G173" s="3">
-        <v>7.69</v>
+        <v>8.1</v>
       </c>
       <c r="H173" s="3"/>
     </row>
@@ -17335,7 +17451,7 @@
         <v>143</v>
       </c>
       <c r="G174" s="3">
-        <v>7.29</v>
+        <v>7.5</v>
       </c>
       <c r="H174" s="3"/>
     </row>
@@ -17356,7 +17472,7 @@
         <v>143</v>
       </c>
       <c r="G175" s="3">
-        <v>6.9</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="H175" s="3"/>
     </row>
@@ -17377,7 +17493,7 @@
         <v>144</v>
       </c>
       <c r="G176" s="3">
-        <v>6.8</v>
+        <v>7.85</v>
       </c>
       <c r="H176" s="3"/>
     </row>
@@ -17398,7 +17514,7 @@
         <v>144</v>
       </c>
       <c r="G177" s="3">
-        <v>8.0500000000000007</v>
+        <v>8.75</v>
       </c>
       <c r="H177" s="3"/>
     </row>
@@ -17419,7 +17535,7 @@
         <v>143</v>
       </c>
       <c r="G178" s="3">
-        <v>7.82</v>
+        <v>8.5</v>
       </c>
       <c r="H178" s="3"/>
     </row>
@@ -17440,7 +17556,7 @@
         <v>144</v>
       </c>
       <c r="G179" s="3">
-        <v>7.75</v>
+        <v>8.5</v>
       </c>
       <c r="H179" s="3"/>
     </row>
@@ -17461,7 +17577,7 @@
         <v>143</v>
       </c>
       <c r="G180" s="3">
-        <v>7.18</v>
+        <v>8.6</v>
       </c>
       <c r="H180" s="3"/>
     </row>
@@ -17480,7 +17596,7 @@
         <v>144</v>
       </c>
       <c r="G181" s="3">
-        <v>7.54</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="H181" s="3"/>
     </row>
@@ -17499,7 +17615,7 @@
         <v>143</v>
       </c>
       <c r="G182" s="3">
-        <v>7.47</v>
+        <v>7.9</v>
       </c>
       <c r="H182" s="3"/>
     </row>
@@ -17518,7 +17634,7 @@
         <v>143</v>
       </c>
       <c r="G183" s="3">
-        <v>7.65</v>
+        <v>8.15</v>
       </c>
       <c r="H183" s="3"/>
     </row>
@@ -17537,7 +17653,7 @@
         <v>143</v>
       </c>
       <c r="G184" s="3">
-        <v>7.83</v>
+        <v>8.4</v>
       </c>
       <c r="H184" s="3"/>
     </row>
@@ -17556,7 +17672,7 @@
         <v>143</v>
       </c>
       <c r="G185" s="3">
-        <v>7.36</v>
+        <v>7.95</v>
       </c>
       <c r="H185" s="3"/>
     </row>
@@ -17575,7 +17691,7 @@
         <v>143</v>
       </c>
       <c r="G186" s="3">
-        <v>7.55</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="H186" s="3"/>
     </row>
@@ -17594,7 +17710,7 @@
         <v>143</v>
       </c>
       <c r="G187" s="3">
-        <v>7.26</v>
+        <v>7.8</v>
       </c>
       <c r="H187" s="3"/>
     </row>
@@ -17613,7 +17729,7 @@
         <v>143</v>
       </c>
       <c r="G188" s="3">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="H188" s="3"/>
     </row>
@@ -17632,7 +17748,7 @@
         <v>143</v>
       </c>
       <c r="G189" s="3">
-        <v>8.34</v>
+        <v>9.1</v>
       </c>
       <c r="H189" s="3"/>
     </row>
@@ -17651,7 +17767,7 @@
         <v>143</v>
       </c>
       <c r="G190" s="3">
-        <v>8</v>
+        <v>8.65</v>
       </c>
       <c r="H190" s="3"/>
     </row>
@@ -17670,7 +17786,7 @@
         <v>143</v>
       </c>
       <c r="G191" s="3">
-        <v>8.19</v>
+        <v>8.75</v>
       </c>
       <c r="H191" s="3"/>
     </row>
@@ -17689,7 +17805,7 @@
         <v>143</v>
       </c>
       <c r="G192" s="3">
-        <v>7.97</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="H192" s="3"/>
     </row>
@@ -17708,7 +17824,7 @@
         <v>144</v>
       </c>
       <c r="G193" s="3">
-        <v>7.55</v>
+        <v>8.25</v>
       </c>
       <c r="H193" s="3"/>
     </row>
@@ -17837,13 +17953,50 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C601BC7-CBF1-4AFC-9775-6AD621190F34}">
+  <dimension ref="C6:T44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="6" spans="3:20" ht="26" x14ac:dyDescent="0.6">
+      <c r="T6" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" ht="21" x14ac:dyDescent="0.5">
+      <c r="C7" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="S8" s="7"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D44" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="37b6c150-1cfb-4e7c-8375-1e80ba3622d9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f6ae59a6-1625-4e69-ac47-ede0f83b6d5f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18070,20 +18223,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="37b6c150-1cfb-4e7c-8375-1e80ba3622d9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f6ae59a6-1625-4e69-ac47-ede0f83b6d5f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDDE8863-B83E-407D-B204-3C98742C9F13}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDD78C10-02C6-4E51-9036-4A8D73AD1F44}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="37b6c150-1cfb-4e7c-8375-1e80ba3622d9"/>
+    <ds:schemaRef ds:uri="f6ae59a6-1625-4e69-ac47-ede0f83b6d5f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18108,12 +18262,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDD78C10-02C6-4E51-9036-4A8D73AD1F44}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDDE8863-B83E-407D-B204-3C98742C9F13}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="37b6c150-1cfb-4e7c-8375-1e80ba3622d9"/>
-    <ds:schemaRef ds:uri="f6ae59a6-1625-4e69-ac47-ede0f83b6d5f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>